--- a/biology/Botanique/Alexandre_Boreau/Alexandre_Boreau.xlsx
+++ b/biology/Botanique/Alexandre_Boreau/Alexandre_Boreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre Boreau est un botaniste français né à Saumur le 5 mars 1803[1], mort à Angers le 5 juillet 1875[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Boreau est un botaniste français né à Saumur le 5 mars 1803, mort à Angers le 5 juillet 1875.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le père d'Alexandre Boreau est journalier, mais la protection d'Abel Aubert Du Petit-Thouars (1793–1864) lui permet d'entrer au collège de Saumur et de faire des études de pharmacie. Il suit au jardin botanique d'Angers les cours de Nicaise Augustin Desvaux (1784–1856).
 En 1828, il s'installe comme pharmacien à Nevers, où il vient d'acheter une officine.
 Encouragé par le comte Hippolyte François Jaubert (1798–1874), qui lui apporte notamment son soutien financier, il publie en 1835, le Programme de la Flore du Centre de la France. Celui-ci fait le bilan des herborisations consacrées jusque-là par Boreau et Jaubert à la Nièvre et à la partie orientale du département du Cher et sollicite la contribution des botanistes locaux à la création d'une flore régionale. Les plantes récoltées à l'occasion de la publication du Programme constituent un Herbarium Nivernense aujourd'hui conservé à la bibliothèque municipale de Nevers.
 Boreau est nommé directeur du jardin botanique d’Angers en 1838.
-En 1840 il fait paraître la Flore du Centre de la France. Une deuxième édition, en 1849, mentionne davantage de stations et couvre une aire géographique plus étendue. La troisième édition (1857) marque, avec l’adhésion de Boreau à l’École jordanienne, une vraie rupture : les taxons y sont multipliés en dehors de toute mesure, ce qui attire de vives critiques à son auteur. Cette prise de position vaut à Boreau d’être rayé de la liste des candidats à l’Institut de France[3]. Néanmoins il demeure un formateur botaniste et aura comme élèves, les botanistes angevins Gaston Allard, Georges Bouvet ou Ernest Préaubert.
-L'important herbier de Boreau, acquis par la ville d'Angers à sa mort, est conservé au muséum d'histoire naturelle de la ville. Il forme le matériel de base de l'étude de la flore du centre de la France et fait apparaitre au travers de 100 000 collectes, les échanges de Boreau avec plus de 300 correspondants. Une partie de sa collection est accessible en ligne[4].
-Ses archives, achetées avec son herbier en 1875, contiennent quelques documents pédagogiques et administratifs ainsi que sa correspondance scientifique. Celle-ci regroupe 3500 lettres de 420 botanistes, elle est accessible en ligne depuis 2024[5].
+En 1840 il fait paraître la Flore du Centre de la France. Une deuxième édition, en 1849, mentionne davantage de stations et couvre une aire géographique plus étendue. La troisième édition (1857) marque, avec l’adhésion de Boreau à l’École jordanienne, une vraie rupture : les taxons y sont multipliés en dehors de toute mesure, ce qui attire de vives critiques à son auteur. Cette prise de position vaut à Boreau d’être rayé de la liste des candidats à l’Institut de France. Néanmoins il demeure un formateur botaniste et aura comme élèves, les botanistes angevins Gaston Allard, Georges Bouvet ou Ernest Préaubert.
+L'important herbier de Boreau, acquis par la ville d'Angers à sa mort, est conservé au muséum d'histoire naturelle de la ville. Il forme le matériel de base de l'étude de la flore du centre de la France et fait apparaitre au travers de 100 000 collectes, les échanges de Boreau avec plus de 300 correspondants. Une partie de sa collection est accessible en ligne.
+Ses archives, achetées avec son herbier en 1875, contiennent quelques documents pédagogiques et administratifs ainsi que sa correspondance scientifique. Celle-ci regroupe 3500 lettres de 420 botanistes, elle est accessible en ligne depuis 2024.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1824 ‒ Promenade botanique sur les bords de la Loire. Nantes.
 1827 ‒ Observations sur les enveloppes florales des végétaux monocotylédons in Mém. Soc. Linn. Paris 6: ??
